--- a/20150125-ats/builds/production/data/maindata.xlsx
+++ b/20150125-ats/builds/production/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="regionalSmoking" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>tab</t>
   </si>
@@ -74,6 +75,12 @@
   </si>
   <si>
     <t>Source: Minnesota Adult Tobacco Survey, 2014</t>
+  </si>
+  <si>
+    <t>Minnesota region name</t>
+  </si>
+  <si>
+    <t>Rate of smoking prevalence in population</t>
   </si>
 </sst>
 </file>
@@ -131,8 +138,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -142,9 +151,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,7 +488,7 @@
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2393,6 +2404,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2405,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2456,4 +2468,45 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>